--- a/Starry slyの設計書のようなもの.xlsx
+++ b/Starry slyの設計書のようなもの.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ko-he-\Desktop\DMM\java\Starry sky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAF49C7-0459-4250-914C-9A6F08C7FF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B09A979B-A476-4DCD-9A54-A358C8D931C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" activeTab="1" xr2:uid="{5562A938-005E-4FC7-94B0-2117449AB8D6}"/>
+    <workbookView xWindow="2858" yWindow="1650" windowWidth="16875" windowHeight="10635" activeTab="1" xr2:uid="{5562A938-005E-4FC7-94B0-2117449AB8D6}"/>
   </bookViews>
   <sheets>
     <sheet name="全体像" sheetId="1" r:id="rId1"/>
     <sheet name="問題案" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -557,9 +558,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -574,6 +572,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1675,21 +1676,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -1706,7 +1707,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="A3" s="1"/>
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1721,7 +1722,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="A4" s="1"/>
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1753,7 +1754,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
@@ -1770,7 +1771,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="A7" s="1"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -1785,7 +1786,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="A8" s="1"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -1809,7 +1810,7 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1843,43 +1844,43 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="3" max="3" width="55.8125" style="3" customWidth="1"/>
-    <col min="4" max="7" width="16.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="55.8125" style="2" customWidth="1"/>
+    <col min="4" max="7" width="16.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1890,19 +1891,19 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1913,19 +1914,19 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1936,19 +1937,19 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>50</v>
       </c>
     </row>
